--- a/excel-data-summaries/flower height on pollen load.xlsx
+++ b/excel-data-summaries/flower height on pollen load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire\Documents\Masters3\masters-thesis\excel-data-summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E91C7A-3CBE-4449-A062-C33171B82F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26402284-8D53-480D-85AC-7A6817AF7F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8CB706A5-75A0-4FE5-9109-2B7D8BDB3890}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{8CB706A5-75A0-4FE5-9109-2B7D8BDB3890}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data from R" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Species</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>1, 43.144</t>
+  </si>
+  <si>
+    <t>Plantago major</t>
+  </si>
+  <si>
+    <t>1, 32.428</t>
+  </si>
+  <si>
+    <t>1, 32.4</t>
   </si>
 </sst>
 </file>
@@ -229,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -322,11 +331,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFEBEBEB"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -361,6 +381,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CFAC07-E837-433B-9215-F78822E5FBC2}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -873,86 +900,106 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>3.8E-3</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0.95130000000000003</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>0.3473</v>
-      </c>
-      <c r="E14">
-        <v>0.70879999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>4.5999999999999999E-3</v>
+        <v>0.3473</v>
       </c>
       <c r="E15">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
+        <v>0.70879999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E16">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>0.61140000000000005</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>0.61160000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.6875</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.41160000000000002</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -964,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DFA3A8-C2FC-4567-AE89-1EB770000686}">
-  <dimension ref="A2:F34"/>
+  <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1008,11 +1055,11 @@
         <v>32</v>
       </c>
       <c r="D3" s="6">
-        <f>ROUND(D22,3-(1+INT(LOG10(ABS(D22)))))</f>
+        <f>ROUND(D23,3-(1+INT(LOG10(ABS(D23)))))</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="E3" s="6">
-        <f>ROUND(E22,3-(1+INT(LOG10(ABS(E22)))))</f>
+        <f>ROUND(E23,3-(1+INT(LOG10(ABS(E23)))))</f>
         <v>0.29099999999999998</v>
       </c>
       <c r="F3" t="s">
@@ -1028,11 +1075,11 @@
         <v>33</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:E15" si="0">ROUND(D23,3-(1+INT(LOG10(ABS(D23)))))</f>
+        <f>ROUND(D24,3-(1+INT(LOG10(ABS(D24)))))</f>
         <v>0.496</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
+        <f>ROUND(E24,3-(1+INT(LOG10(ABS(E24)))))</f>
         <v>0.48699999999999999</v>
       </c>
       <c r="F4" s="4"/>
@@ -1048,11 +1095,11 @@
         <v>34</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f>ROUND(D25,3-(1+INT(LOG10(ABS(D25)))))</f>
         <v>0.51300000000000001</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="0"/>
+        <f>ROUND(E25,3-(1+INT(LOG10(ABS(E25)))))</f>
         <v>0.46500000000000002</v>
       </c>
       <c r="F5" t="s">
@@ -1068,11 +1115,11 @@
         <v>15</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="0"/>
+        <f>ROUND(D26,3-(1+INT(LOG10(ABS(D26)))))</f>
         <v>23.3</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
+        <f>ROUND(E26,3-(1+INT(LOG10(ABS(E26)))))</f>
         <v>3.3099999999999998E-5</v>
       </c>
       <c r="F6" s="4"/>
@@ -1088,11 +1135,11 @@
         <v>35</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND(D27,3-(1+INT(LOG10(ABS(D27)))))</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E7" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND(E27,3-(1+INT(LOG10(ABS(E27)))))</f>
         <v>0.92500000000000004</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1108,11 +1155,11 @@
         <v>36</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="0"/>
+        <f>ROUND(D28,3-(1+INT(LOG10(ABS(D28)))))</f>
         <v>12</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
+        <f>ROUND(E28,3-(1+INT(LOG10(ABS(E28)))))</f>
         <v>1.1800000000000001E-3</v>
       </c>
       <c r="F8" s="4"/>
@@ -1126,11 +1173,11 @@
         <v>37</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f>ROUND(D29,3-(1+INT(LOG10(ABS(D29)))))</f>
         <v>0.94799999999999995</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="0"/>
+        <f>ROUND(E29,3-(1+INT(LOG10(ABS(E29)))))</f>
         <v>0.33800000000000002</v>
       </c>
       <c r="F9" t="s">
@@ -1146,11 +1193,11 @@
         <v>38</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="0"/>
+        <f>ROUND(D30,3-(1+INT(LOG10(ABS(D30)))))</f>
         <v>15.7</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
+        <f>ROUND(E30,3-(1+INT(LOG10(ABS(E30)))))</f>
         <v>2.4499999999999999E-4</v>
       </c>
       <c r="F10" s="4"/>
@@ -1166,224 +1213,244 @@
         <v>39</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="0"/>
+        <f>ROUND(D31,3-(1+INT(LOG10(ABS(D31)))))</f>
         <v>0.17</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="0"/>
+        <f>ROUND(E31,3-(1+INT(LOG10(ABS(E31)))))</f>
         <v>0.68500000000000005</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="10">
-        <f t="shared" si="0"/>
+      <c r="D13" s="10">
+        <f t="shared" ref="D13:E16" si="0">ROUND(D32,3-(1+INT(LOG10(ABS(D32)))))</f>
         <v>3.8E-3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>0.95099999999999996</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="15"/>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="15"/>
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>0.34699999999999998</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>0.70899999999999996</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
-      <c r="A14" s="15"/>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
+      <c r="A15" s="15"/>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>0.94599999999999995</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>0.61099999999999999</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>0.61199999999999999</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="12" t="s">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>0.41199999999999998</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
-      <c r="D21" t="s">
+    <row r="22" spans="1:6">
+      <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
-      <c r="D22">
+    <row r="23" spans="1:6">
+      <c r="D23">
         <v>1.1325000000000001</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
-      <c r="D23">
+    <row r="24" spans="1:6">
+      <c r="D24">
         <v>0.496</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>0.48720000000000002</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
-      <c r="D24">
+    <row r="25" spans="1:6">
+      <c r="D25">
         <v>0.51300000000000001</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>0.46539999999999998</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
-      <c r="D25">
+    <row r="26" spans="1:6">
+      <c r="D26">
         <v>23.291899999999998</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>3.3139999999999998E-5</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
-      <c r="D26">
+    <row r="27" spans="1:6">
+      <c r="D27">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>0.92484</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
-      <c r="D27">
+    <row r="28" spans="1:6">
+      <c r="D28">
         <v>11.987</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>1.1800000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
-      <c r="D28">
+    <row r="29" spans="1:6">
+      <c r="D29">
         <v>0.94789999999999996</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>0.3378063</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
-      <c r="D29">
+    <row r="30" spans="1:6">
+      <c r="D30">
         <v>15.7026</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>2.4509999999999999E-4</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
-      <c r="D30">
+    <row r="31" spans="1:6">
+      <c r="D31">
         <v>0.16969999999999999</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>0.68540000000000001</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
-      <c r="D31">
+    <row r="32" spans="1:6">
+      <c r="D32">
         <v>3.8E-3</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>0.95130000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5">
-      <c r="D32">
-        <v>0.3473</v>
-      </c>
-      <c r="E32">
-        <v>0.70879999999999999</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33">
-        <v>4.5999999999999999E-3</v>
+        <v>0.3473</v>
       </c>
       <c r="E33">
-        <v>0.94589999999999996</v>
+        <v>0.70879999999999999</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="D34">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E34">
+        <v>0.94589999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35">
         <v>0.61140000000000005</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>0.61160000000000003</v>
       </c>
     </row>
@@ -1392,7 +1459,7 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
